--- a/model/pickstock_live/pickstock_live.xlsx
+++ b/model/pickstock_live/pickstock_live.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="scalars" sheetId="1" r:id="rId1"/>
-    <sheet name="partOfPortfolio" sheetId="2" r:id="rId2"/>
-    <sheet name="dowVSindex" sheetId="3" r:id="rId3"/>
-    <sheet name="abserror" sheetId="4" r:id="rId4"/>
-    <sheet name="stockDataRep" sheetId="5" r:id="rId5"/>
+    <sheet name="price" sheetId="2" r:id="rId2"/>
+    <sheet name="partOfPortfolio" sheetId="3" r:id="rId3"/>
+    <sheet name="dowVSindex" sheetId="4" r:id="rId4"/>
+    <sheet name="abserror" sheetId="5" r:id="rId5"/>
     <sheet name="scalars_out" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Scalar</t>
   </si>
@@ -42,16 +42,16 @@
     <t>number of days for training</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>stockSymbol</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>stock price</t>
+  </si>
+  <si>
+    <t>what part of the portfolio</t>
   </si>
   <si>
     <t>dow jones</t>
@@ -60,16 +60,10 @@
     <t>index fund</t>
   </si>
   <si>
-    <t>2016-02-01</t>
-  </si>
-  <si>
     <t>absolute error train</t>
   </si>
   <si>
     <t>absolute error test</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>lastDayTraining</t>
@@ -453,6 +447,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -461,52 +487,14 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="A2">
         <v>0</v>
       </c>
     </row>
@@ -525,18 +513,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -560,21 +548,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -606,13 +594,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
